--- a/Node.xlsx
+++ b/Node.xlsx
@@ -415,10 +415,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -429,10 +429,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -443,10 +443,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -457,10 +457,10 @@
         <v>7</v>
       </c>
       <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5">
         <v>40</v>
-      </c>
-      <c r="D5">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -485,10 +485,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D7">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -499,10 +499,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -513,10 +513,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -527,10 +527,10 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="D10">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -541,10 +541,10 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>95</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
